--- a/medicine/Premiers secours et secourisme/Techniques_de_survie/Techniques_de_survie.xlsx
+++ b/medicine/Premiers secours et secourisme/Techniques_de_survie/Techniques_de_survie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les techniques de survie permettent à un être humain de survivre dans un environnement hostile.
 En général, ces techniques permettent de combler les besoins primaires de l'humain : eau, nourriture, abri, habitat, et de permettre de bien penser, de demander de l'aide, de se déplacer en toute sécurité, d'éviter les interactions désagréables avec des animaux et des plantes et pour les premiers soins.
@@ -514,15 +526,17 @@
           <t>Principales techniques de survie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À la maison, la préparation consiste principalement à avoir des réserves de nourriture et d'eau pour plusieurs jours. En Suisse, l'Office fédéral pour l'approvisionnement économique du pays conseille à la population de stocker chez soi pour une semaine de produits alimentaires et d'eau de boisson (ainsi que quelques objets utiles)[3].
-En pleine nature, les étapes essentielles pour survivre sont[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>À la maison, la préparation consiste principalement à avoir des réserves de nourriture et d'eau pour plusieurs jours. En Suisse, l'Office fédéral pour l'approvisionnement économique du pays conseille à la population de stocker chez soi pour une semaine de produits alimentaires et d'eau de boisson (ainsi que quelques objets utiles).
+En pleine nature, les étapes essentielles pour survivre sont :
 s'orienter grâce à une montre et à l'heure solaire durant la journée, grâce à l'étoile polaire durant la nuit ;
 s'abriter ;
 se réchauffer en allumant un feu et en se couvrant ;
 s'hydrater sans oublier de purifier l'eau en la filtrant ou en la faisant bouillir ;
-se nourrir[5].</t>
+se nourrir.</t>
         </is>
       </c>
     </row>
@@ -550,7 +564,9 @@
           <t>Survie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1999, Robert Bogucki, un américain, a survécu 43 jours dans le Grand Désert de Sable d'Australie avant d'être sauvé. Il n'a presque rien mangé ni bu durant cette période, et a parcouru environ 400 km. Il a fait l'objet d'un reportage[réf. souhaitée].
 </t>
@@ -581,9 +597,11 @@
           <t>Dans les médias</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1855, Francis Galton publie The Art of Travel, précurseur des guides touristiques, qui comporte certains conseils utiles à la survie du voyageur. Les techniques présentées suscitent encore un certain intérêt de nos jours ; l'ouvrage de Galton a été constamment réédité depuis sa première parution'[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1855, Francis Galton publie The Art of Travel, précurseur des guides touristiques, qui comporte certains conseils utiles à la survie du voyageur. Les techniques présentées suscitent encore un certain intérêt de nos jours ; l'ouvrage de Galton a été constamment réédité depuis sa première parution'.
 Ces techniques ont fait l'objet dans les années 2000 de deux émissions télévisées : Le Survivant et Seul face à la nature (Man vs. Wild).
 La série semi-documentaire américaine I shouldn't be alive (en français : « Je ne devrais pas être en vie ») revient sur des cas réels de survie dans la nature.
 </t>
